--- a/10-razpredelnice/rezultati.xlsx
+++ b/10-razpredelnice/rezultati.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d689ea935ecf4af/Git/racunalniski-praktikum/10-razpredelnice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8A674371-9D9B-4342-8248-E38E027148FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC73B824-6D65-4B58-A1E7-ABBDBB1B1038}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8A674371-9D9B-4342-8248-E38E027148FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD770CD7-BC66-44D0-B606-D53632BE353C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rezultati" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3052,6 +3052,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="tinkara" refreshedDate="45655.906296064815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{279EBCC9-5DF5-4DFE-9D6F-6DF7E8E77D36}">
   <cacheSource type="worksheet">
@@ -3195,7 +3199,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDAC1F90-1AA7-4415-BBF8-29D13BA82C67}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Skupina">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDAC1F90-1AA7-4415-BBF8-29D13BA82C67}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Skupina">
   <location ref="H9:L12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -3601,7 +3605,7 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
